--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gaurav\Automation\selenium-framework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betho\OneDrive\Desktop\selenium-framework\selenium-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD33A675-6E70-4ECF-88D5-C2E26FBE194F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595699F-1C45-4E3B-9FF3-96C6E5756950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
   <si>
     <t>Execute</t>
   </si>
@@ -46,19 +46,52 @@
     <t>TestCaseSheet</t>
   </si>
   <si>
+    <t>EcomApis</t>
+  </si>
+  <si>
+    <t>EcomApis.xlsx</t>
+  </si>
+  <si>
+    <t>Product1.xlsx</t>
+  </si>
+  <si>
+    <t>Scenario1</t>
+  </si>
+  <si>
+    <t>API.xlsx</t>
+  </si>
+  <si>
+    <t>Scenario2</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Smoke, Regression</t>
+  </si>
+  <si>
+    <t>TestScenario</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Product1.xlsx</t>
-  </si>
-  <si>
-    <t>scenario2</t>
-  </si>
-  <si>
-    <t>API.xlsx</t>
-  </si>
-  <si>
-    <t>Scenario1</t>
+    <t>test12</t>
+  </si>
+  <si>
+    <t>test13</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -443,22 +476,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="16.3046875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.53515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.84375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="16.3046875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="22.15234375" collapsed="true"/>
+    <col min="1" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -475,29 +508,82 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -508,21 +594,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2DDB49-3051-49E0-81DB-EEEC6AB092D8}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.69140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.53515625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.3828125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.15234375" collapsed="true"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -539,29 +626,93 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="C3" t="s">
+      <c r="E3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -570,23 +721,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005C83CA1A5F4AE4C9BEF6454A5CBD615" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec7417affe12c862527167136ce573ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xmlns:ns4="e178c8a6-526e-465c-b240-e7ca9adf772c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3e517818b1b2821051a10e8ea2fc5c" ns3:_="" ns4:_="">
     <xsd:import namespace="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
@@ -819,25 +953,24 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B973315-B0F0-4CE1-9BD5-E731C7EF6E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -854,4 +987,22 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betho\OneDrive\Desktop\selenium-framework\selenium-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F595699F-1C45-4E3B-9FF3-96C6E5756950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E511EF-B9BB-485D-89BE-F0CDAA0C272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
   <si>
     <t>Execute</t>
   </si>
@@ -46,59 +46,34 @@
     <t>TestCaseSheet</t>
   </si>
   <si>
-    <t>EcomApis</t>
-  </si>
-  <si>
-    <t>EcomApis.xlsx</t>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>TestScenario12</t>
   </si>
   <si>
     <t>Product1.xlsx</t>
   </si>
   <si>
-    <t>Scenario1</t>
-  </si>
-  <si>
-    <t>API.xlsx</t>
-  </si>
-  <si>
-    <t>Scenario2</t>
-  </si>
-  <si>
-    <t>Tags</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Smoke, Regression</t>
-  </si>
-  <si>
-    <t>TestScenario</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>test12</t>
-  </si>
-  <si>
-    <t>test13</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Chrome, Firefox</t>
+  </si>
+  <si>
+    <t>Scenario12</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -476,22 +451,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:XFD6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="16.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.140625" collapsed="true"/>
+    <col min="1" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -508,82 +484,41 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
-        <v>15</v>
-      </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>11</v>
+      </c>
+      <c r="H2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
+      <c r="H3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -594,22 +529,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2DDB49-3051-49E0-81DB-EEEC6AB092D8}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.5703125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -626,93 +562,13 @@
         <v>5</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\betho\OneDrive\Desktop\selenium-framework\selenium-framework\src\test\resources\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gaurav\Automation\selenium-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E511EF-B9BB-485D-89BE-F0CDAA0C272F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96DE564-CC10-4915-9F5C-9E664B1A3034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
   <sheets>
     <sheet name="UI" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
   <si>
     <t>Execute</t>
   </si>
@@ -49,31 +49,32 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>TestScenario12</t>
+    <t>Yes</t>
   </si>
   <si>
     <t>Product1.xlsx</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>Chrome, Firefox</t>
-  </si>
-  <si>
-    <t>Scenario12</t>
-  </si>
-  <si>
-    <t>Chrome</t>
+    <t>TC1</t>
+  </si>
+  <si>
+    <t>API.xlsx</t>
+  </si>
+  <si>
+    <t>Test Case1</t>
+  </si>
+  <si>
+    <t>tc02</t>
+  </si>
+  <si>
+    <t>TC3</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -451,23 +452,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="16.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" customWidth="true" width="16.3046875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.53515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="19.84375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="16.3046875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="22.07421875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,27 +487,21 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
@@ -515,10 +509,18 @@
         <v>8</v>
       </c>
       <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
         <v>13</v>
       </c>
-      <c r="H3" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -529,23 +531,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2DDB49-3051-49E0-81DB-EEEC6AB092D8}">
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="1" max="2" bestFit="true" customWidth="true" width="15.69140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="9.53515625" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.3046875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="16.3046875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -565,10 +566,43 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>0</v>
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -577,6 +611,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005C83CA1A5F4AE4C9BEF6454A5CBD615" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec7417affe12c862527167136ce573ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xmlns:ns4="e178c8a6-526e-465c-b240-e7ca9adf772c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3e517818b1b2821051a10e8ea2fc5c" ns3:_="" ns4:_="">
     <xsd:import namespace="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
@@ -809,7 +851,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -818,15 +860,17 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B973315-B0F0-4CE1-9BD5-E731C7EF6E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -845,20 +889,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/src/test/resources/testdata/FlowInterface.xlsx
+++ b/src/test/resources/testdata/FlowInterface.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gaurav\Automation\selenium-framework\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96DE564-CC10-4915-9F5C-9E664B1A3034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04410E77-1F26-44B3-92C9-A92785985507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{181615CE-948B-4B1E-A394-A1F048FF8318}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="22">
   <si>
     <t>Execute</t>
   </si>
@@ -49,25 +49,49 @@
     <t>Tags</t>
   </si>
   <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>Product1.xlsx</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>API.xlsx</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
     <t>Yes</t>
   </si>
   <si>
-    <t>Product1.xlsx</t>
-  </si>
-  <si>
-    <t>TC1</t>
-  </si>
-  <si>
-    <t>API.xlsx</t>
-  </si>
-  <si>
-    <t>Test Case1</t>
-  </si>
-  <si>
-    <t>tc02</t>
-  </si>
-  <si>
-    <t>TC3</t>
+    <t>Scenario13</t>
+  </si>
+  <si>
+    <t>back1</t>
+  </si>
+  <si>
+    <t>back2</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Sanity</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>back3</t>
   </si>
 </sst>
 </file>
@@ -452,22 +476,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB77993-C7EC-411C-A1DE-F48C8A198BE7}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" customWidth="true" width="16.3046875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.53515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3828125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="19.84375" collapsed="true"/>
     <col min="5" max="6" customWidth="true" width="16.3046875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="22.07421875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.53515625" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="22.15234375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -487,40 +512,106 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>9</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
       <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
         <v>8</v>
       </c>
+      <c r="F3" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>10</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>8</v>
       </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>10</v>
+      </c>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>8</v>
+      </c>
+      <c r="G7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -531,22 +622,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B2DDB49-3051-49E0-81DB-EEEC6AB092D8}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" bestFit="true" customWidth="true" width="15.69140625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="9.53515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.3828125" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="23.3046875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="14.15234375" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="16.3046875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.3046875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -566,43 +658,80 @@
         <v>6</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C3" t="s">
         <v>12</v>
       </c>
       <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="C4" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
-        <v>7</v>
+      <c r="H4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -611,14 +740,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010005C83CA1A5F4AE4C9BEF6454A5CBD615" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ec7417affe12c862527167136ce573ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xmlns:ns4="e178c8a6-526e-465c-b240-e7ca9adf772c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2b3e517818b1b2821051a10e8ea2fc5c" ns3:_="" ns4:_="">
     <xsd:import namespace="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
@@ -851,6 +972,14 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="5f905fdd-d228-4768-8e98-39c2c3fc93fc" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -861,16 +990,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B973315-B0F0-4CE1-9BD5-E731C7EF6E1E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -889,6 +1008,16 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5F607A51-1680-4B23-AACE-40B4CF7D53C1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5f905fdd-d228-4768-8e98-39c2c3fc93fc"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28C1F0FE-A252-4DCA-9928-5CED55A2AC2D}">
   <ds:schemaRefs>
